--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_21.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>299554.2647230297</v>
+        <v>314436.7448407393</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12434090.2960877</v>
+        <v>12434090.29608771</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6795208.083234018</v>
+        <v>6795208.083234017</v>
       </c>
     </row>
     <row r="11">
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="T2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>97.76646051984092</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -789,22 +789,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>22.0339917726843</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V5" t="n">
-        <v>84.41978777916125</v>
-      </c>
       <c r="W5" t="n">
+        <v>40.47627913313517</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1029,10 +1029,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>116.325098768111</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1151,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>7.778646031951277</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>32.44882437674524</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>123.9789444454822</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>26.76813842813718</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>414.089049841944</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>181.3631617334038</v>
+        <v>1.980438027926839</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>36.25478010213102</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1494,19 +1494,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S12" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
-        <v>120.206241369224</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1570,13 +1570,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R13" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S13" t="n">
-        <v>214.5288682289405</v>
+        <v>213.2605954932953</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.48765477304424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
-        <v>18.19947957269377</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>303.0090314087148</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1686,7 +1686,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1698,10 +1698,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>106.2387529750474</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>96.12861729281047</v>
       </c>
       <c r="T15" t="n">
         <v>197.5472709665096</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>75.02839015808972</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>10.5421541965934</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
         <v>139.0783256288916</v>
@@ -1807,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1850,19 +1850,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>239.1564019759209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
         <v>217.7829317747374</v>
@@ -1901,16 +1901,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>339.389648247309</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1935,13 +1935,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S18" t="n">
         <v>159.6212195484502</v>
@@ -1977,13 +1977,13 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>95.62025615464796</v>
       </c>
       <c r="W18" t="n">
-        <v>25.31012947239299</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>88.59832967195069</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>77.50776027739583</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>189.7666056453394</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>58.96983631756912</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,19 +2157,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>108.5443389727455</v>
+        <v>87.08036771626205</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>136.6941370086349</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>71.9559862569234</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>242.5969721031601</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>211.5193922673738</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>290.3946492333829</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2403,13 +2403,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>45.59910121103272</v>
       </c>
       <c r="F24" t="n">
-        <v>24.64815776426665</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>3.878879678156751</v>
+        <v>110.9705324835878</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2533,16 +2533,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2564,16 +2564,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>55.95423915739114</v>
       </c>
       <c r="I26" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,19 +2609,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>139.8750845874003</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2643,16 +2643,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2688,13 +2688,13 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>220.4784512255519</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2725,16 +2725,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2761,19 +2761,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>36.48436605884934</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>268.9755074231835</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>367.8571125332458</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,28 +2837,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.542183080313</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2877,16 +2877,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>76.32943916025816</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>67.03858805571426</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>159.6212195484502</v>
@@ -2937,7 +2937,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>153.4760179304277</v>
       </c>
     </row>
     <row r="31">
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>110.970532483588</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3004,19 +3004,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>347.3669805721898</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.01167815745391</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3089,13 +3089,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>127.1896964218135</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -3123,10 +3123,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
         <v>197.5472709665096</v>
@@ -3174,7 +3174,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>156.5819542946489</v>
       </c>
     </row>
     <row r="34">
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3229,10 +3229,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>109.7384251876796</v>
+        <v>101.4950217895004</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>150.4962231372425</v>
       </c>
       <c r="T35" t="n">
-        <v>77.24979912635349</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3354,16 +3354,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
-        <v>91.6867458199809</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,16 +3390,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8986597023843</v>
+        <v>82.28018995116467</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>8.23273467247474</v>
       </c>
       <c r="D37" t="n">
-        <v>147.3472002825671</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,19 +3509,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>312.9042426969687</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,10 +3548,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>30.86731793787112</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>27.0240109355215</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>67.03858805571426</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S39" t="n">
         <v>159.6212195484502</v>
@@ -3636,7 +3636,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8862910612164</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3709,16 +3709,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>101.7286863245553</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>43.35606979968811</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3752,13 +3752,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>139.028522998474</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,16 +3791,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>66.97649427705925</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3831,13 +3831,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>24.64815776426666</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>92.96858446130993</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>43.26585203414595</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>306.2461798823878</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3986,16 +3986,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4040,10 +4040,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>335.7645482476364</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4065,13 +4065,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>59.83930139749141</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
         <v>197.5472709665096</v>
@@ -4113,7 +4113,7 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V45" t="n">
-        <v>96.38140405642858</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>16.83786409935544</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,16 +4183,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>169.4333667739966</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4352,25 +4352,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T2" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="V2" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="W2" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="V2" t="n">
+      <c r="X2" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="W2" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="X2" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
         <v>19.28114311021272</v>
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>118.0351436353046</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>118.0351436353046</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,19 +4413,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4437,22 +4437,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>533.6469426057913</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>533.6469426057913</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>325.7954424002585</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y3" t="n">
-        <v>118.0351436353046</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4510,28 +4510,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4592,25 +4592,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>348.0024326625565</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W5" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X5" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4677,19 +4677,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>500.6814290152826</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="W6" t="n">
-        <v>257.2326523711826</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X6" t="n">
-        <v>49.38115216564972</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y6" t="n">
-        <v>49.38115216564972</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>113.583345248266</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V8" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W8" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>327.4530077769195</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="C9" t="n">
-        <v>327.4530077769195</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="D9" t="n">
-        <v>178.5185981156682</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4887,13 +4887,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O9" t="n">
         <v>712.019119383956</v>
@@ -4905,28 +4905,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>931.2805652310956</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>757.8632206817645</v>
+        <v>737.6563690478833</v>
       </c>
       <c r="T9" t="n">
-        <v>555.6766260405304</v>
+        <v>737.6563690478833</v>
       </c>
       <c r="U9" t="n">
-        <v>327.4530077769195</v>
+        <v>737.6563690478833</v>
       </c>
       <c r="V9" t="n">
-        <v>327.4530077769195</v>
+        <v>737.6563690478833</v>
       </c>
       <c r="W9" t="n">
-        <v>327.4530077769195</v>
+        <v>737.6563690478833</v>
       </c>
       <c r="X9" t="n">
-        <v>327.4530077769195</v>
+        <v>737.6563690478833</v>
       </c>
       <c r="Y9" t="n">
-        <v>327.4530077769195</v>
+        <v>529.8960702829295</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4984,28 +4984,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>850.470986230295</v>
+        <v>1603.380884295529</v>
       </c>
       <c r="C11" t="n">
-        <v>850.470986230295</v>
+        <v>1234.418367355117</v>
       </c>
       <c r="D11" t="n">
-        <v>492.2052876235445</v>
+        <v>876.152668748367</v>
       </c>
       <c r="E11" t="n">
-        <v>465.1667639587595</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F11" t="n">
         <v>465.1667639587595</v>
@@ -5039,16 +5039,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M11" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N11" t="n">
         <v>1610.799342072557</v>
@@ -5066,25 +5066,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S11" t="n">
-        <v>2161.554709220192</v>
+        <v>2342.749379629765</v>
       </c>
       <c r="T11" t="n">
-        <v>2161.554709220192</v>
+        <v>2342.749379629765</v>
       </c>
       <c r="U11" t="n">
-        <v>1907.76828710506</v>
+        <v>2342.749379629765</v>
       </c>
       <c r="V11" t="n">
-        <v>1576.705399761489</v>
+        <v>2342.749379629765</v>
       </c>
       <c r="W11" t="n">
-        <v>1223.936744491375</v>
+        <v>1989.980724359651</v>
       </c>
       <c r="X11" t="n">
-        <v>850.470986230295</v>
+        <v>1989.980724359651</v>
       </c>
       <c r="Y11" t="n">
-        <v>850.470986230295</v>
+        <v>1989.980724359651</v>
       </c>
     </row>
     <row r="12">
@@ -5118,52 +5118,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K12" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L12" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O12" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P12" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S12" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T12" t="n">
-        <v>2183.516266982771</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U12" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.94371292353</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.706356195328</v>
+        <v>1441.112009177413</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.854855989795</v>
+        <v>1233.26050897188</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.094557224842</v>
+        <v>1025.500210206926</v>
       </c>
     </row>
     <row r="13">
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194.8080900240374</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="C13" t="n">
-        <v>194.8080900240374</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8080900240374</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E13" t="n">
         <v>46.89499644164432</v>
@@ -5218,31 +5218,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q13" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R13" t="n">
-        <v>453.4106385108907</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="S13" t="n">
-        <v>236.7148120170114</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="T13" t="n">
-        <v>236.7148120170114</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="U13" t="n">
-        <v>236.7148120170114</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="V13" t="n">
-        <v>236.7148120170114</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="W13" t="n">
-        <v>236.7148120170114</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="X13" t="n">
-        <v>236.7148120170114</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="Y13" t="n">
-        <v>194.8080900240374</v>
+        <v>197.0116358539801</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>423.5440077480855</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="C14" t="n">
-        <v>423.5440077480855</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="D14" t="n">
-        <v>65.278309141335</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="E14" t="n">
-        <v>65.278309141335</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F14" t="n">
-        <v>65.278309141335</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G14" t="n">
-        <v>65.278309141335</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H14" t="n">
         <v>46.89499644164432</v>
@@ -5276,16 +5276,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L14" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M14" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N14" t="n">
         <v>1610.799342072557</v>
@@ -5306,22 +5306,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T14" t="n">
-        <v>2124.767062713795</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U14" t="n">
-        <v>1870.980640598662</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V14" t="n">
-        <v>1539.917753255091</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W14" t="n">
-        <v>1187.149097984977</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X14" t="n">
-        <v>813.6833397238972</v>
+        <v>2038.680093386545</v>
       </c>
       <c r="Y14" t="n">
-        <v>423.5440077480855</v>
+        <v>1648.540761410733</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>783.3663200545602</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="C15" t="n">
-        <v>608.9132907734332</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D15" t="n">
-        <v>459.978881112182</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E15" t="n">
-        <v>300.7414261067265</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F15" t="n">
-        <v>154.2068681336114</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G15" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H15" t="n">
         <v>46.89499644164432</v>
@@ -5355,22 +5355,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K15" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L15" t="n">
-        <v>645.6158192373775</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M15" t="n">
-        <v>1128.843878304552</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N15" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O15" t="n">
-        <v>1887.88481026779</v>
+        <v>2010.647906926653</v>
       </c>
       <c r="P15" t="n">
         <v>2193.291384540003</v>
@@ -5379,28 +5379,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S15" t="n">
-        <v>2284.306083296871</v>
+        <v>2247.650208655135</v>
       </c>
       <c r="T15" t="n">
-        <v>2084.763385350902</v>
+        <v>2048.107510709166</v>
       </c>
       <c r="U15" t="n">
-        <v>1856.582921005059</v>
+        <v>1819.927046363323</v>
       </c>
       <c r="V15" t="n">
-        <v>1621.430812773317</v>
+        <v>1584.77493813158</v>
       </c>
       <c r="W15" t="n">
-        <v>1367.193456045115</v>
+        <v>1330.537581403379</v>
       </c>
       <c r="X15" t="n">
-        <v>1159.341955839582</v>
+        <v>1122.686081197846</v>
       </c>
       <c r="Y15" t="n">
-        <v>951.5816570746283</v>
+        <v>914.925782432892</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>318.5874281822333</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="C16" t="n">
-        <v>318.5874281822333</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="D16" t="n">
-        <v>318.5874281822333</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="E16" t="n">
-        <v>242.8011754972942</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="F16" t="n">
-        <v>242.8011754972942</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="G16" t="n">
-        <v>242.8011754972942</v>
+        <v>401.7777381738809</v>
       </c>
       <c r="H16" t="n">
         <v>242.8011754972942</v>
@@ -5455,31 +5455,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q16" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R16" t="n">
-        <v>607.7685734363102</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="S16" t="n">
-        <v>607.7685734363102</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="T16" t="n">
-        <v>607.7685734363102</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="U16" t="n">
-        <v>318.5874281822333</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="V16" t="n">
-        <v>318.5874281822333</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="W16" t="n">
-        <v>318.5874281822333</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="X16" t="n">
-        <v>318.5874281822333</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="Y16" t="n">
-        <v>318.5874281822333</v>
+        <v>412.4263787765005</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.89499644164432</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="C17" t="n">
-        <v>46.89499644164432</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="D17" t="n">
-        <v>46.89499644164432</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="E17" t="n">
-        <v>46.89499644164432</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F17" t="n">
-        <v>46.89499644164432</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G17" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H17" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I17" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L17" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M17" t="n">
         <v>1190.549107376119</v>
@@ -5537,28 +5537,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S17" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T17" t="n">
-        <v>2124.767062713795</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U17" t="n">
-        <v>1870.980640598662</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V17" t="n">
-        <v>1539.917753255091</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="W17" t="n">
-        <v>1197.099926742658</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="X17" t="n">
-        <v>823.6341684815778</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="Y17" t="n">
-        <v>433.4948365057661</v>
+        <v>1613.411982645667</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>850.8043343374655</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C18" t="n">
-        <v>676.3513050563386</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D18" t="n">
-        <v>527.4168953950873</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E18" t="n">
-        <v>368.1794403896317</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F18" t="n">
-        <v>221.6448824165167</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G18" t="n">
         <v>221.6448824165167</v>
@@ -5592,10 +5592,10 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K18" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L18" t="n">
         <v>642.6780758583286</v>
@@ -5625,19 +5625,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U18" t="n">
-        <v>1695.349365905614</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="V18" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W18" t="n">
-        <v>1434.63147032802</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X18" t="n">
-        <v>1226.779970122487</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y18" t="n">
-        <v>1019.019671357534</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="19">
@@ -5674,7 +5674,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K19" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L19" t="n">
         <v>194.9121237200978</v>
@@ -5698,22 +5698,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S19" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>301.5794846475312</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U19" t="n">
-        <v>301.5794846475312</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="V19" t="n">
-        <v>46.89499644164432</v>
+        <v>125.1856633885088</v>
       </c>
       <c r="W19" t="n">
-        <v>46.89499644164432</v>
+        <v>125.1856633885088</v>
       </c>
       <c r="X19" t="n">
-        <v>46.89499644164432</v>
+        <v>125.1856633885088</v>
       </c>
       <c r="Y19" t="n">
         <v>46.89499644164432</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1325.250045950391</v>
+        <v>1159.911464587051</v>
       </c>
       <c r="C20" t="n">
-        <v>956.2875290099796</v>
+        <v>790.948947646639</v>
       </c>
       <c r="D20" t="n">
-        <v>598.0218304032292</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="E20" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F20" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G20" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H20" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
@@ -5756,10 +5756,10 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N20" t="n">
         <v>1610.799342072557</v>
@@ -5777,25 +5777,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S20" t="n">
-        <v>2161.554709220192</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T20" t="n">
-        <v>2161.554709220192</v>
+        <v>2153.066382036419</v>
       </c>
       <c r="U20" t="n">
-        <v>2161.554709220192</v>
+        <v>1899.279959921286</v>
       </c>
       <c r="V20" t="n">
-        <v>2161.554709220192</v>
+        <v>1899.279959921286</v>
       </c>
       <c r="W20" t="n">
-        <v>2161.554709220192</v>
+        <v>1546.511304651172</v>
       </c>
       <c r="X20" t="n">
-        <v>2101.989217990325</v>
+        <v>1546.511304651172</v>
       </c>
       <c r="Y20" t="n">
-        <v>1711.849886014513</v>
+        <v>1546.511304651172</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>790.3481019751835</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C21" t="n">
-        <v>615.8950726940565</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D21" t="n">
-        <v>506.2543262569397</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="E21" t="n">
-        <v>506.2543262569397</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="F21" t="n">
         <v>359.7197682838247</v>
@@ -5835,19 +5835,19 @@
         <v>336.0641406922996</v>
       </c>
       <c r="L21" t="n">
-        <v>642.6780758583286</v>
+        <v>573.2835173449994</v>
       </c>
       <c r="M21" t="n">
-        <v>1125.906134925503</v>
+        <v>1056.511576412174</v>
       </c>
       <c r="N21" t="n">
-        <v>1637.630816213677</v>
+        <v>1568.236257700347</v>
       </c>
       <c r="O21" t="n">
-        <v>2039.343247810003</v>
+        <v>1969.948689296674</v>
       </c>
       <c r="P21" t="n">
-        <v>2344.749822082216</v>
+        <v>2275.355263568887</v>
       </c>
       <c r="Q21" t="n">
         <v>2344.749822082216</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>362.7211268674616</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C22" t="n">
-        <v>193.7849439395547</v>
+        <v>438.8323905084034</v>
       </c>
       <c r="D22" t="n">
-        <v>193.7849439395547</v>
+        <v>288.7157510960676</v>
       </c>
       <c r="E22" t="n">
-        <v>193.7849439395547</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="F22" t="n">
-        <v>46.89499644164432</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G22" t="n">
         <v>46.89499644164432</v>
@@ -5947,13 +5947,13 @@
         <v>607.7685734363102</v>
       </c>
       <c r="W22" t="n">
-        <v>362.7211268674616</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X22" t="n">
-        <v>362.7211268674616</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y22" t="n">
-        <v>362.7211268674616</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1757.628112035911</v>
+        <v>826.8434181716636</v>
       </c>
       <c r="C23" t="n">
-        <v>1757.628112035911</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="D23" t="n">
-        <v>1757.628112035911</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="E23" t="n">
-        <v>1371.839859437666</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F23" t="n">
-        <v>960.8539546480588</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G23" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H23" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
@@ -6008,31 +6008,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R23" t="n">
-        <v>2344.749822082217</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S23" t="n">
-        <v>2344.749822082217</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T23" t="n">
-        <v>2344.749822082217</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U23" t="n">
-        <v>2344.749822082217</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V23" t="n">
-        <v>2131.093870296991</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W23" t="n">
-        <v>2131.093870296991</v>
+        <v>1977.048348472677</v>
       </c>
       <c r="X23" t="n">
-        <v>1757.628112035911</v>
+        <v>1603.582590211597</v>
       </c>
       <c r="Y23" t="n">
-        <v>1757.628112035911</v>
+        <v>1213.443258235785</v>
       </c>
     </row>
     <row r="24">
@@ -6051,10 +6051,10 @@
         <v>298.7453260127371</v>
       </c>
       <c r="E24" t="n">
-        <v>139.5078710072816</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="F24" t="n">
-        <v>114.6107419524668</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G24" t="n">
         <v>114.6107419524668</v>
@@ -6066,10 +6066,10 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J24" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K24" t="n">
-        <v>121.6684232076319</v>
+        <v>172.2525564994817</v>
       </c>
       <c r="L24" t="n">
         <v>491.2196383161158</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>194.8080900240374</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C25" t="n">
-        <v>194.8080900240374</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8080900240374</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E25" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F25" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G25" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H25" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I25" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J25" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K25" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L25" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N25" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O25" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P25" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q25" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R25" t="n">
-        <v>453.4106385108907</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S25" t="n">
-        <v>449.4925782299243</v>
+        <v>2232.658375129097</v>
       </c>
       <c r="T25" t="n">
-        <v>449.4925782299243</v>
+        <v>2232.658375129097</v>
       </c>
       <c r="U25" t="n">
-        <v>449.4925782299243</v>
+        <v>2232.658375129097</v>
       </c>
       <c r="V25" t="n">
-        <v>194.8080900240374</v>
+        <v>2232.658375129097</v>
       </c>
       <c r="W25" t="n">
-        <v>194.8080900240374</v>
+        <v>2232.658375129097</v>
       </c>
       <c r="X25" t="n">
-        <v>194.8080900240374</v>
+        <v>2004.66882423108</v>
       </c>
       <c r="Y25" t="n">
-        <v>194.8080900240374</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>598.0218304032292</v>
+        <v>900.1885873218105</v>
       </c>
       <c r="C26" t="n">
-        <v>598.0218304032292</v>
+        <v>900.1885873218105</v>
       </c>
       <c r="D26" t="n">
-        <v>598.0218304032292</v>
+        <v>900.1885873218105</v>
       </c>
       <c r="E26" t="n">
-        <v>212.2335778049849</v>
+        <v>514.4003347235662</v>
       </c>
       <c r="F26" t="n">
-        <v>212.2335778049849</v>
+        <v>103.4144299339586</v>
       </c>
       <c r="G26" t="n">
-        <v>212.2335778049849</v>
+        <v>103.4144299339586</v>
       </c>
       <c r="H26" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I26" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L26" t="n">
-        <v>762.5916738244551</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M26" t="n">
         <v>1190.549107376119</v>
@@ -6257,19 +6257,19 @@
         <v>2050.393517622824</v>
       </c>
       <c r="U26" t="n">
-        <v>1796.607095507691</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="V26" t="n">
-        <v>1465.54420816412</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="W26" t="n">
-        <v>1112.775552894006</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="X26" t="n">
-        <v>739.3097946329265</v>
+        <v>1676.927759361744</v>
       </c>
       <c r="Y26" t="n">
-        <v>598.0218304032292</v>
+        <v>1286.788427385932</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>881.8450797407235</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C27" t="n">
-        <v>707.3920504595965</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D27" t="n">
-        <v>558.4576407983452</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E27" t="n">
-        <v>399.2201857928898</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F27" t="n">
-        <v>252.6856278197748</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G27" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H27" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I27" t="n">
         <v>46.89499644164432</v>
@@ -6306,13 +6306,13 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K27" t="n">
-        <v>336.0641406922996</v>
+        <v>261.2565324477667</v>
       </c>
       <c r="L27" t="n">
-        <v>658.4236639666715</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M27" t="n">
-        <v>1141.651723033846</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N27" t="n">
         <v>1486.172378671464</v>
@@ -6336,19 +6336,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U27" t="n">
-        <v>1923.529830251457</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V27" t="n">
-        <v>1688.377722019714</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W27" t="n">
-        <v>1465.672215731278</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X27" t="n">
-        <v>1257.820715525745</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y27" t="n">
-        <v>1050.060416760791</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>570.9156784273715</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C28" t="n">
-        <v>570.9156784273715</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D28" t="n">
-        <v>570.9156784273715</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E28" t="n">
-        <v>570.9156784273715</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F28" t="n">
-        <v>570.9156784273715</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G28" t="n">
-        <v>401.7777381738809</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H28" t="n">
-        <v>242.8011754972942</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3180182963936</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J28" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K28" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L28" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M28" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N28" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O28" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P28" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q28" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R28" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S28" t="n">
-        <v>570.9156784273715</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T28" t="n">
-        <v>570.9156784273715</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U28" t="n">
-        <v>570.9156784273715</v>
+        <v>2055.568676828139</v>
       </c>
       <c r="V28" t="n">
-        <v>570.9156784273715</v>
+        <v>2055.568676828139</v>
       </c>
       <c r="W28" t="n">
-        <v>570.9156784273715</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="X28" t="n">
-        <v>570.9156784273715</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="Y28" t="n">
-        <v>570.9156784273715</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>570.4992764117354</v>
+        <v>1215.241994772169</v>
       </c>
       <c r="C29" t="n">
-        <v>570.4992764117354</v>
+        <v>1215.241994772169</v>
       </c>
       <c r="D29" t="n">
-        <v>212.2335778049849</v>
+        <v>1215.241994772169</v>
       </c>
       <c r="E29" t="n">
-        <v>212.2335778049849</v>
+        <v>829.4537421739244</v>
       </c>
       <c r="F29" t="n">
-        <v>212.2335778049849</v>
+        <v>418.4678373843169</v>
       </c>
       <c r="G29" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H29" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I29" t="n">
         <v>46.89499644164432</v>
@@ -6485,28 +6485,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R29" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S29" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T29" t="n">
-        <v>1881.582999401633</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U29" t="n">
-        <v>1627.7965772865</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V29" t="n">
-        <v>1296.733689942929</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W29" t="n">
-        <v>943.9650346728154</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="X29" t="n">
-        <v>570.4992764117354</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="Y29" t="n">
-        <v>570.4992764117354</v>
+        <v>1601.84183483629</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>622.1327649551154</v>
+        <v>735.3105217676085</v>
       </c>
       <c r="C30" t="n">
-        <v>447.6797356739884</v>
+        <v>560.8574924864815</v>
       </c>
       <c r="D30" t="n">
-        <v>298.7453260127371</v>
+        <v>411.9230828252303</v>
       </c>
       <c r="E30" t="n">
-        <v>298.7453260127371</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="F30" t="n">
-        <v>298.7453260127371</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G30" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H30" t="n">
         <v>114.6107419524668</v>
@@ -6540,19 +6540,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J30" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K30" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L30" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M30" t="n">
-        <v>1127.406714895654</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N30" t="n">
-        <v>1639.131396183828</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O30" t="n">
         <v>1887.88481026779</v>
@@ -6564,28 +6564,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R30" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S30" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T30" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U30" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V30" t="n">
-        <v>1460.197257673872</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W30" t="n">
-        <v>1205.95990094567</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X30" t="n">
-        <v>998.1084007401373</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y30" t="n">
-        <v>790.3481019751835</v>
+        <v>903.5258587876765</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1895.967692040669</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C31" t="n">
-        <v>1895.967692040669</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K31" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L31" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M31" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N31" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O31" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U31" t="n">
-        <v>2344.749822082216</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V31" t="n">
-        <v>2344.749822082216</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W31" t="n">
-        <v>2344.749822082216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X31" t="n">
-        <v>2116.760271184199</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y31" t="n">
-        <v>1895.967692040669</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6674,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1194.544891781203</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="C32" t="n">
-        <v>843.6691538294961</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="D32" t="n">
-        <v>843.6691538294961</v>
+        <v>1633.715468205352</v>
       </c>
       <c r="E32" t="n">
-        <v>457.8809012312519</v>
+        <v>1247.927215607107</v>
       </c>
       <c r="F32" t="n">
-        <v>46.89499644164432</v>
+        <v>836.9413108174999</v>
       </c>
       <c r="G32" t="n">
-        <v>46.89499644164432</v>
+        <v>418.6695433003848</v>
       </c>
       <c r="H32" t="n">
-        <v>46.89499644164432</v>
+        <v>88.32093397442605</v>
       </c>
       <c r="I32" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K32" t="n">
         <v>392.9020949275675</v>
       </c>
       <c r="L32" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M32" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N32" t="n">
         <v>1610.799342072557</v>
@@ -6737,13 +6737,13 @@
         <v>2344.749822082216</v>
       </c>
       <c r="W32" t="n">
-        <v>2344.749822082216</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="X32" t="n">
-        <v>1971.284063821136</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="Y32" t="n">
-        <v>1581.144731845325</v>
+        <v>1991.981166812102</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>783.3663200545602</v>
+        <v>839.9448105435223</v>
       </c>
       <c r="C33" t="n">
-        <v>608.9132907734332</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="D33" t="n">
-        <v>459.978881112182</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E33" t="n">
-        <v>331.5044402820673</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F33" t="n">
-        <v>184.9698823089523</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G33" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H33" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
@@ -6780,22 +6780,22 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K33" t="n">
-        <v>273.1268607498447</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L33" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M33" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N33" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O33" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P33" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q33" t="n">
         <v>2344.749822082216</v>
@@ -6804,25 +6804,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S33" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T33" t="n">
-        <v>2084.763385350902</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U33" t="n">
-        <v>1856.582921005059</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V33" t="n">
-        <v>1621.430812773317</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W33" t="n">
-        <v>1367.193456045115</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X33" t="n">
-        <v>1159.341955839582</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y33" t="n">
-        <v>951.5816570746283</v>
+        <v>839.9448105435223</v>
       </c>
     </row>
     <row r="34">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.89499644164432</v>
+        <v>215.8311793695513</v>
       </c>
       <c r="C34" t="n">
         <v>46.89499644164432</v>
@@ -6877,31 +6877,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q34" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R34" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S34" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T34" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U34" t="n">
-        <v>301.5794846475312</v>
+        <v>505.2483494065119</v>
       </c>
       <c r="V34" t="n">
-        <v>46.89499644164432</v>
+        <v>505.2483494065119</v>
       </c>
       <c r="W34" t="n">
-        <v>46.89499644164432</v>
+        <v>215.8311793695513</v>
       </c>
       <c r="X34" t="n">
-        <v>46.89499644164432</v>
+        <v>215.8311793695513</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.89499644164432</v>
+        <v>215.8311793695513</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>432.6832490398886</v>
+        <v>1234.418367355117</v>
       </c>
       <c r="C35" t="n">
-        <v>432.6832490398886</v>
+        <v>1234.418367355117</v>
       </c>
       <c r="D35" t="n">
-        <v>432.6832490398886</v>
+        <v>876.152668748367</v>
       </c>
       <c r="E35" t="n">
-        <v>46.89499644164432</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F35" t="n">
-        <v>46.89499644164432</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G35" t="n">
         <v>46.89499644164432</v>
@@ -6941,7 +6941,7 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L35" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M35" t="n">
         <v>1190.549107376119</v>
@@ -6962,25 +6962,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S35" t="n">
-        <v>2344.749822082216</v>
+        <v>2192.733435074901</v>
       </c>
       <c r="T35" t="n">
-        <v>2266.719721954586</v>
+        <v>2192.733435074901</v>
       </c>
       <c r="U35" t="n">
-        <v>2266.719721954586</v>
+        <v>1938.947012959768</v>
       </c>
       <c r="V35" t="n">
-        <v>1935.656834611016</v>
+        <v>1607.884125616197</v>
       </c>
       <c r="W35" t="n">
-        <v>1582.888179340902</v>
+        <v>1607.884125616197</v>
       </c>
       <c r="X35" t="n">
-        <v>1209.422421079822</v>
+        <v>1234.418367355117</v>
       </c>
       <c r="Y35" t="n">
-        <v>819.2830891040103</v>
+        <v>1234.418367355117</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C36" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D36" t="n">
-        <v>298.7453260127371</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E36" t="n">
-        <v>139.5078710072816</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F36" t="n">
-        <v>139.5078710072816</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G36" t="n">
-        <v>139.5078710072816</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H36" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I36" t="n">
         <v>46.89499644164432</v>
@@ -7029,7 +7029,7 @@
         <v>1700.568096156132</v>
       </c>
       <c r="O36" t="n">
-        <v>2039.343247810003</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P36" t="n">
         <v>2344.749822082216</v>
@@ -7038,28 +7038,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R36" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S36" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T36" t="n">
-        <v>1923.529830251457</v>
+        <v>2145.207124136247</v>
       </c>
       <c r="U36" t="n">
-        <v>1695.349365905614</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V36" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W36" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X36" t="n">
-        <v>998.1084007401373</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y36" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="37">
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>195.7305522826212</v>
+        <v>205.3275294625404</v>
       </c>
       <c r="C37" t="n">
-        <v>195.7305522826212</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="D37" t="n">
         <v>46.89499644164432</v>
@@ -7114,31 +7114,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q37" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R37" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S37" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T37" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U37" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V37" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W37" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X37" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y37" t="n">
-        <v>195.7305522826212</v>
+        <v>386.9759942927801</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>405.1606950483948</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="C38" t="n">
-        <v>405.1606950483948</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="D38" t="n">
-        <v>46.89499644164432</v>
+        <v>1655.421236131895</v>
       </c>
       <c r="E38" t="n">
-        <v>46.89499644164432</v>
+        <v>1269.632983533651</v>
       </c>
       <c r="F38" t="n">
-        <v>46.89499644164432</v>
+        <v>858.6470787440433</v>
       </c>
       <c r="G38" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H38" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I38" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K38" t="n">
         <v>392.9020949275675</v>
       </c>
       <c r="L38" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M38" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N38" t="n">
         <v>1610.799342072557</v>
@@ -7196,28 +7196,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S38" t="n">
-        <v>2239.197167963093</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T38" t="n">
-        <v>2239.197167963093</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U38" t="n">
-        <v>2239.197167963093</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V38" t="n">
-        <v>1908.134280619522</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="W38" t="n">
-        <v>1555.365625349408</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="X38" t="n">
-        <v>1181.899867088328</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="Y38" t="n">
-        <v>791.7605351125167</v>
+        <v>2013.686934738646</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>850.8043343374655</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C39" t="n">
-        <v>676.3513050563386</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D39" t="n">
-        <v>527.4168953950873</v>
+        <v>420.3827549310374</v>
       </c>
       <c r="E39" t="n">
-        <v>368.1794403896317</v>
+        <v>261.1452999255819</v>
       </c>
       <c r="F39" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="G39" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H39" t="n">
         <v>114.6107419524668</v>
@@ -7254,16 +7254,16 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K39" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L39" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M39" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N39" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O39" t="n">
         <v>1887.88481026779</v>
@@ -7275,28 +7275,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S39" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T39" t="n">
-        <v>1983.973569036802</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U39" t="n">
-        <v>1755.805598267897</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V39" t="n">
-        <v>1520.653490036154</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W39" t="n">
-        <v>1266.416133307952</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X39" t="n">
-        <v>1058.56463310242</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y39" t="n">
-        <v>850.8043343374655</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>215.8311793695513</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K40" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L40" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N40" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O40" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S40" t="n">
-        <v>505.0123246236282</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T40" t="n">
-        <v>505.0123246236282</v>
+        <v>2116.851400240302</v>
       </c>
       <c r="U40" t="n">
-        <v>215.8311793695513</v>
+        <v>1827.670254986225</v>
       </c>
       <c r="V40" t="n">
-        <v>215.8311793695513</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="W40" t="n">
-        <v>215.8311793695513</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="X40" t="n">
-        <v>215.8311793695513</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="Y40" t="n">
-        <v>215.8311793695513</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>974.5621324127812</v>
+        <v>774.1232119888066</v>
       </c>
       <c r="C41" t="n">
-        <v>605.5996154723696</v>
+        <v>405.1606950483948</v>
       </c>
       <c r="D41" t="n">
-        <v>605.5996154723696</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E41" t="n">
-        <v>605.5996154723696</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F41" t="n">
-        <v>605.5996154723696</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G41" t="n">
-        <v>187.3278479552544</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H41" t="n">
-        <v>187.3278479552544</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I41" t="n">
         <v>46.89499644164432</v>
@@ -7439,22 +7439,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T41" t="n">
-        <v>2124.767062713795</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U41" t="n">
-        <v>2124.767062713795</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V41" t="n">
-        <v>2124.767062713795</v>
+        <v>2277.096797559934</v>
       </c>
       <c r="W41" t="n">
-        <v>2124.767062713795</v>
+        <v>1924.32814228982</v>
       </c>
       <c r="X41" t="n">
-        <v>1751.301304452715</v>
+        <v>1550.86238402874</v>
       </c>
       <c r="Y41" t="n">
-        <v>1361.161972476903</v>
+        <v>1160.723052052928</v>
       </c>
     </row>
     <row r="42">
@@ -7479,25 +7479,25 @@
         <v>139.5078710072816</v>
       </c>
       <c r="G42" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H42" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I42" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K42" t="n">
-        <v>336.0641406922997</v>
+        <v>172.2525564994817</v>
       </c>
       <c r="L42" t="n">
-        <v>658.4236639666715</v>
+        <v>541.8037716079657</v>
       </c>
       <c r="M42" t="n">
-        <v>1141.651723033846</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N42" t="n">
         <v>1486.172378671464</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>90.597877284216</v>
+        <v>513.86091236428</v>
       </c>
       <c r="C43" t="n">
-        <v>90.597877284216</v>
+        <v>344.9247294363731</v>
       </c>
       <c r="D43" t="n">
-        <v>90.597877284216</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="E43" t="n">
-        <v>90.597877284216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F43" t="n">
-        <v>90.597877284216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G43" t="n">
-        <v>90.597877284216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H43" t="n">
-        <v>90.597877284216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I43" t="n">
-        <v>90.597877284216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J43" t="n">
         <v>46.89499644164432</v>
@@ -7600,19 +7600,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U43" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V43" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W43" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X43" t="n">
-        <v>90.597877284216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.597877284216</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7622,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1374.559296527095</v>
+        <v>1570.897369376658</v>
       </c>
       <c r="C44" t="n">
-        <v>1374.559296527095</v>
+        <v>1201.934852436247</v>
       </c>
       <c r="D44" t="n">
-        <v>1016.293597920344</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E44" t="n">
-        <v>630.5053453221001</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F44" t="n">
-        <v>630.5053453221001</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915535</v>
+        <v>137.045321891553</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275671</v>
       </c>
       <c r="L44" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M44" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N44" t="n">
         <v>1610.799342072557</v>
@@ -7673,25 +7673,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S44" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T44" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U44" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V44" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W44" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="X44" t="n">
-        <v>1713.715405868142</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="Y44" t="n">
-        <v>1374.559296527095</v>
+        <v>1880.236945015434</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>921.1634746939509</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C45" t="n">
-        <v>746.7104454128239</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D45" t="n">
-        <v>597.7760357515726</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E45" t="n">
-        <v>438.5385807461172</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F45" t="n">
-        <v>292.0040227730022</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G45" t="n">
-        <v>153.9291369056942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H45" t="n">
         <v>46.89499644164432</v>
@@ -7725,16 +7725,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K45" t="n">
-        <v>336.0641406922997</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L45" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N45" t="n">
         <v>1486.172378671464</v>
@@ -7752,25 +7752,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S45" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T45" t="n">
-        <v>2084.763385350902</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U45" t="n">
-        <v>1856.582921005059</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V45" t="n">
-        <v>1759.227967412707</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W45" t="n">
-        <v>1504.990610684506</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X45" t="n">
-        <v>1297.139110478973</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y45" t="n">
-        <v>1089.378811714019</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1800.884188622252</v>
+        <v>215.8311793695513</v>
       </c>
       <c r="C46" t="n">
-        <v>1800.884188622252</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D46" t="n">
-        <v>1800.884188622252</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E46" t="n">
-        <v>1800.884188622252</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F46" t="n">
-        <v>1800.884188622252</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K46" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L46" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M46" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N46" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O46" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S46" t="n">
-        <v>2344.749822082216</v>
+        <v>436.6237585130814</v>
       </c>
       <c r="T46" t="n">
-        <v>2344.749822082216</v>
+        <v>436.6237585130814</v>
       </c>
       <c r="U46" t="n">
-        <v>2055.568676828139</v>
+        <v>436.6237585130814</v>
       </c>
       <c r="V46" t="n">
-        <v>1800.884188622252</v>
+        <v>436.6237585130814</v>
       </c>
       <c r="W46" t="n">
-        <v>1800.884188622252</v>
+        <v>436.6237585130814</v>
       </c>
       <c r="X46" t="n">
-        <v>1800.884188622252</v>
+        <v>436.6237585130814</v>
       </c>
       <c r="Y46" t="n">
-        <v>1800.884188622252</v>
+        <v>215.8311793695513</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8070,13 +8070,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,16 +8535,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>108.5094987082738</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579836</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K24" t="n">
-        <v>47.90390621998491</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>213.370152879397</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>152.7645603911081</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>47.90390621998491</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10914,7 +10914,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>177.3009884841359</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720732</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11382,10 +11382,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>309.749325445695</v>
       </c>
       <c r="N45" t="n">
-        <v>431.6739987535411</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22592,28 +22592,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="T2" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22629,7 +22629,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>49.67860504479783</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22647,7 +22647,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22677,22 +22677,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="4">
@@ -22729,7 +22729,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>155.2593996044852</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22805,7 +22805,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22832,25 +22832,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>243.3324706909737</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>308.7646895842778</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22860,7 +22860,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22869,7 +22869,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>128.5926628167762</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22884,7 +22884,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22917,10 +22917,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
@@ -22929,7 +22929,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22963,7 +22963,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>46.33425578299913</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,10 +23018,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23039,10 +23039,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,7 +23063,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23072,19 +23072,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V8" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>341.4623226854617</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23097,28 +23097,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23145,16 +23145,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>67.7090097758979</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>47.70422665835565</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23166,7 +23166,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23197,13 +23197,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23224,7 +23224,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>355.1622316441246</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>179.382723705477</v>
       </c>
       <c r="T11" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,7 +23334,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>130.2784035477363</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23382,19 +23382,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>105.6924183331604</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23458,13 +23458,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.268272735645269</v>
       </c>
       <c r="T13" t="n">
         <v>225.6194376234954</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>177.0969985790505</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>308.8456436600054</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
         <v>163.6851955497072</v>
@@ -23546,19 +23546,19 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>66.72206926975423</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23574,7 +23574,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23586,10 +23586,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>30.45538403358744</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>67.03858805571426</v>
@@ -23619,10 +23619,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S15" t="n">
-        <v>159.6212195484502</v>
+        <v>63.49260225563972</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>71.40557248847945</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4465608509556</v>
+        <v>156.9044066543622</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23695,10 +23695,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>214.5288682289405</v>
@@ -23707,7 +23707,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23738,19 +23738,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>142.7739680963409</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,10 +23777,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23789,16 +23789,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>9.851320470103985</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23823,7 +23823,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23865,13 +23865,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>137.1803309947773</v>
       </c>
       <c r="W18" t="n">
-        <v>226.3848536885266</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I19" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J19" t="n">
         <v>54.86879163620181</v>
@@ -23932,16 +23932,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R19" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
-        <v>137.0211079515447</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2893338015361</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>141.0768930746989</v>
       </c>
     </row>
     <row r="20">
@@ -23987,7 +23987,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,25 +24017,25 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7829317747374</v>
+        <v>28.01632612939804</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>310.7612643608999</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,19 +24045,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>38.9007265918932</v>
+        <v>60.36469784837671</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>74.47797638964578</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>157.3867970498209</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>43.92602623343089</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>181.3631617334038</v>
@@ -24263,16 +24263,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
-        <v>116.2328662027611</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>58.84631948403012</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24291,13 +24291,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>112.0459792443682</v>
       </c>
       <c r="F24" t="n">
-        <v>120.4210546291172</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>105.9637990594094</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,10 +24409,10 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S25" t="n">
-        <v>210.6499885507838</v>
+        <v>103.5583357453527</v>
       </c>
       <c r="T25" t="n">
         <v>225.6194376234954</v>
@@ -24421,16 +24421,16 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24452,16 +24452,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
-        <v>327.0451232326991</v>
+        <v>271.0908840753079</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24497,19 +24497,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>246.3628540686533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24531,16 +24531,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24576,13 +24576,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>31.21653193536773</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24613,16 +24613,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24649,19 +24649,19 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S28" t="n">
-        <v>178.0445021700912</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T28" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>17.5474909134075</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,28 +24677,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.089049841944</v>
+        <v>46.23193730869815</v>
       </c>
       <c r="H29" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24725,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>14.24074869442441</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24765,16 +24765,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>60.36469784837671</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24825,7 +24825,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>52.20667784687663</v>
       </c>
     </row>
     <row r="31">
@@ -24841,7 +24841,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>37.64494053462435</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24892,19 +24892,19 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2893338015361</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>17.90591119881771</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24929,13 +24929,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>122.6735173922533</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24977,13 +24977,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,16 +24993,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>30.45538403358745</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25011,10 +25011,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25044,7 +25044,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25062,7 +25062,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>49.10074148265551</v>
       </c>
     </row>
     <row r="34">
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25117,10 +25117,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S34" t="n">
         <v>214.5288682289405</v>
@@ -25129,13 +25129,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>176.5509086138565</v>
+        <v>184.7943120120357</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,22 +25151,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>327.0451232326991</v>
@@ -25202,25 +25202,25 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S35" t="n">
-        <v>181.3631617334038</v>
+        <v>30.86693859616136</v>
       </c>
       <c r="T35" t="n">
-        <v>140.533132648384</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25242,16 +25242,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>14.27705323942853</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,16 +25278,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>143.6184697512197</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>159.0140864261531</v>
       </c>
       <c r="D37" t="n">
-        <v>1.26827273564524</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25354,13 +25354,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T37" t="n">
         <v>225.6194376234954</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25397,19 +25397,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>101.1848071449753</v>
       </c>
       <c r="H38" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,10 +25436,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S38" t="n">
-        <v>150.4958437955327</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
         <v>217.7829317747374</v>
@@ -25451,13 +25451,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,13 +25467,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>120.4210546291173</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25485,7 +25485,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25524,7 +25524,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0123686411679671</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25597,16 +25597,16 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S40" t="n">
-        <v>112.8001819043853</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T40" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>208.7815735241399</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25640,13 +25640,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
-        <v>24.65667255123319</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,16 +25679,16 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>260.7757641930756</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25719,13 +25719,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>112.0459792443682</v>
+        <v>45.00739118865397</v>
       </c>
       <c r="H42" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>86.86339572062737</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25807,7 +25807,7 @@
         <v>139.0783256288915</v>
       </c>
       <c r="J43" t="n">
-        <v>11.60293960205586</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,7 +25849,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>76.48766178109275</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25874,16 +25874,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
         <v>217.7829317747374</v>
@@ -25928,10 +25928,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>50.47339040841717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25953,13 +25953,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
         <v>67.03858805571424</v>
@@ -25992,7 +25992,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26001,7 +26001,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>136.4191830929967</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>150.6086967516002</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H46" t="n">
         <v>157.3867970498209</v>
@@ -26071,16 +26071,16 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S46" t="n">
-        <v>214.5288682289405</v>
+        <v>45.09550145494396</v>
       </c>
       <c r="T46" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>407093.6477017646</v>
+        <v>407093.6477017647</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>647721.4444223277</v>
+        <v>647721.4444223279</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>647721.4444223278</v>
+        <v>647721.4444223276</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>647721.4444223277</v>
+        <v>647721.4444223279</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>647721.4444223278</v>
+        <v>647721.4444223277</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>647721.4444223279</v>
+        <v>647721.4444223277</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>647721.4444223279</v>
+        <v>647721.4444223276</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>647721.4444223277</v>
+        <v>647721.4444223276</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>647721.4444223281</v>
+        <v>647721.4444223276</v>
       </c>
     </row>
     <row r="14">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>174468.7061578989</v>
+        <v>174468.706157899</v>
       </c>
       <c r="C2" t="n">
         <v>174468.706157899</v>
@@ -26320,40 +26320,40 @@
         <v>174468.7061578989</v>
       </c>
       <c r="E2" t="n">
+        <v>277594.9047524259</v>
+      </c>
+      <c r="F2" t="n">
         <v>277594.904752426</v>
       </c>
-      <c r="F2" t="n">
-        <v>277594.9047524258</v>
-      </c>
       <c r="G2" t="n">
-        <v>277594.904752426</v>
+        <v>277594.9047524259</v>
       </c>
       <c r="H2" t="n">
         <v>277594.9047524261</v>
       </c>
       <c r="I2" t="n">
-        <v>277594.9047524257</v>
+        <v>277594.9047524259</v>
       </c>
       <c r="J2" t="n">
+        <v>277594.904752426</v>
+      </c>
+      <c r="K2" t="n">
         <v>277594.9047524259</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>277594.904752426</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>277594.9047524261</v>
+      </c>
+      <c r="N2" t="n">
+        <v>277594.904752426</v>
+      </c>
+      <c r="O2" t="n">
         <v>277594.9047524258</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>277594.9047524258</v>
-      </c>
-      <c r="N2" t="n">
-        <v>277594.9047524258</v>
-      </c>
-      <c r="O2" t="n">
-        <v>277594.904752426</v>
-      </c>
-      <c r="P2" t="n">
-        <v>277594.904752426</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007602</v>
+        <v>86018.533820076</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,13 +26421,13 @@
         <v>179.5324977039669</v>
       </c>
       <c r="D4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="E4" t="n">
-        <v>445.150385721245</v>
+        <v>445.1503857212451</v>
       </c>
       <c r="F4" t="n">
-        <v>445.150385721245</v>
+        <v>445.1503857212451</v>
       </c>
       <c r="G4" t="n">
         <v>445.150385721245</v>
@@ -26436,22 +26436,22 @@
         <v>445.150385721245</v>
       </c>
       <c r="I4" t="n">
-        <v>445.150385721245</v>
+        <v>445.1503857212451</v>
       </c>
       <c r="J4" t="n">
-        <v>445.150385721245</v>
+        <v>445.1503857212451</v>
       </c>
       <c r="K4" t="n">
-        <v>445.150385721245</v>
+        <v>445.1503857212451</v>
       </c>
       <c r="L4" t="n">
-        <v>445.150385721245</v>
+        <v>445.1503857212451</v>
       </c>
       <c r="M4" t="n">
         <v>445.150385721245</v>
       </c>
       <c r="N4" t="n">
-        <v>445.150385721245</v>
+        <v>445.1503857212451</v>
       </c>
       <c r="O4" t="n">
         <v>445.1503857212451</v>
@@ -26519,10 +26519,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45238.47336488557</v>
+        <v>45238.47336488559</v>
       </c>
       <c r="C6" t="n">
-        <v>126007.9048964333</v>
+        <v>126007.9048964334</v>
       </c>
       <c r="D6" t="n">
         <v>126007.9048964333</v>
@@ -26531,37 +26531,37 @@
         <v>-110684.3105376945</v>
       </c>
       <c r="F6" t="n">
+        <v>234928.0322412582</v>
+      </c>
+      <c r="G6" t="n">
         <v>234928.0322412581</v>
-      </c>
-      <c r="G6" t="n">
-        <v>234928.0322412582</v>
       </c>
       <c r="H6" t="n">
         <v>234928.0322412583</v>
       </c>
       <c r="I6" t="n">
-        <v>234928.0322412579</v>
+        <v>234928.0322412581</v>
       </c>
       <c r="J6" t="n">
-        <v>171868.0896421519</v>
+        <v>171868.089642152</v>
       </c>
       <c r="K6" t="n">
+        <v>234928.0322412581</v>
+      </c>
+      <c r="L6" t="n">
         <v>234928.0322412582</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
+        <v>148909.4984211823</v>
+      </c>
+      <c r="N6" t="n">
+        <v>234928.0322412582</v>
+      </c>
+      <c r="O6" t="n">
+        <v>234928.032241258</v>
+      </c>
+      <c r="P6" t="n">
         <v>234928.0322412581</v>
-      </c>
-      <c r="M6" t="n">
-        <v>148909.498421182</v>
-      </c>
-      <c r="N6" t="n">
-        <v>234928.032241258</v>
-      </c>
-      <c r="O6" t="n">
-        <v>234928.0322412582</v>
-      </c>
-      <c r="P6" t="n">
-        <v>234928.0322412582</v>
       </c>
     </row>
   </sheetData>
@@ -26750,7 +26750,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="G3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="H3" t="n">
         <v>301.9048087062786</v>
@@ -31838,7 +31838,7 @@
         <v>22.35804479570083</v>
       </c>
       <c r="J12" t="n">
-        <v>61.35218381454669</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
@@ -31853,7 +31853,7 @@
         <v>168.8929552025813</v>
       </c>
       <c r="O12" t="n">
-        <v>90.93104805041338</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P12" t="n">
         <v>124.0031279382449</v>
@@ -32075,7 +32075,7 @@
         <v>22.35804479570083</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K15" t="n">
         <v>104.8606541711232</v>
@@ -32087,13 +32087,13 @@
         <v>164.5381207449218</v>
       </c>
       <c r="N15" t="n">
-        <v>12.93721689827657</v>
+        <v>168.8929552025813</v>
       </c>
       <c r="O15" t="n">
-        <v>154.5040580932971</v>
+        <v>61.94585523894841</v>
       </c>
       <c r="P15" t="n">
-        <v>124.0031279382449</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>82.8928070998824</v>
@@ -32230,7 +32230,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I17" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J17" t="n">
         <v>103.0102241525006</v>
@@ -32251,22 +32251,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P17" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q17" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R17" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S17" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T17" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H18" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I18" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J18" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K18" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L18" t="n">
-        <v>77.42508009866651</v>
+        <v>140.9980901415503</v>
       </c>
       <c r="M18" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N18" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O18" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P18" t="n">
         <v>124.0031279382449</v>
@@ -32336,10 +32336,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S18" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T18" t="n">
         <v>2.617457728311981</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H19" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I19" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J19" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K19" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L19" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M19" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N19" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O19" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P19" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R19" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S19" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T19" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32555,7 +32555,7 @@
         <v>104.8606541711232</v>
       </c>
       <c r="L21" t="n">
-        <v>77.42508009866651</v>
+        <v>7.329566448838989</v>
       </c>
       <c r="M21" t="n">
         <v>164.5381207449218</v>
@@ -32789,10 +32789,10 @@
         <v>61.35218381454669</v>
       </c>
       <c r="K24" t="n">
-        <v>104.8606541711232</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>140.9980901415503</v>
+        <v>89.90300600836866</v>
       </c>
       <c r="M24" t="n">
         <v>164.5381207449218</v>
@@ -33026,16 +33026,16 @@
         <v>61.35218381454669</v>
       </c>
       <c r="K27" t="n">
-        <v>104.8606541711232</v>
+        <v>29.2974135200798</v>
       </c>
       <c r="L27" t="n">
-        <v>93.32971455153807</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>164.5381207449218</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>168.8929552025813</v>
       </c>
       <c r="O27" t="n">
         <v>154.5040580932971</v>
@@ -33263,19 +33263,19 @@
         <v>61.35218381454669</v>
       </c>
       <c r="K30" t="n">
-        <v>104.8606541711232</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>140.9980901415503</v>
       </c>
       <c r="M30" t="n">
-        <v>102.4808480456253</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N30" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P30" t="n">
         <v>124.0031279382449</v>
@@ -33500,7 +33500,7 @@
         <v>61.35218381454669</v>
       </c>
       <c r="K33" t="n">
-        <v>41.28764412823941</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>140.9980901415503</v>
@@ -33749,10 +33749,10 @@
         <v>168.8929552025813</v>
       </c>
       <c r="O36" t="n">
-        <v>90.93104805041338</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P36" t="n">
-        <v>124.0031279382449</v>
+        <v>60.43011789536098</v>
       </c>
       <c r="Q36" t="n">
         <v>82.8928070998824</v>
@@ -34211,16 +34211,16 @@
         <v>61.3521838145467</v>
       </c>
       <c r="K42" t="n">
-        <v>104.8606541711232</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>93.32971455153802</v>
+        <v>140.9980901415503</v>
       </c>
       <c r="M42" t="n">
-        <v>164.5381207449219</v>
+        <v>113.4430366117402</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>168.8929552025813</v>
       </c>
       <c r="O42" t="n">
         <v>154.5040580932972</v>
@@ -34387,7 +34387,7 @@
         <v>174.5298045144674</v>
       </c>
       <c r="Q44" t="n">
-        <v>131.0646147183117</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R44" t="n">
         <v>76.23930830108857</v>
@@ -34457,7 +34457,7 @@
         <v>164.5381207449219</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>168.8929552025813</v>
       </c>
       <c r="O45" t="n">
         <v>154.5040580932972</v>
@@ -34781,7 +34781,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34790,13 +34790,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,13 +35015,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35033,7 +35033,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,16 +35255,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>231.4844522093428</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L12" t="n">
         <v>373.2840556651353</v>
@@ -35501,13 +35501,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O12" t="n">
-        <v>342.1971228826985</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P12" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K15" t="n">
         <v>231.4844522093428</v>
@@ -35735,13 +35735,13 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N15" t="n">
-        <v>360.9378791584968</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O15" t="n">
-        <v>405.7701329255822</v>
+        <v>313.2119300712335</v>
       </c>
       <c r="P15" t="n">
-        <v>308.4914891638518</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>152.98832074971</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K17" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L17" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M17" t="n">
         <v>432.2802359107712</v>
@@ -35896,13 +35896,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O17" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P17" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q17" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L18" t="n">
-        <v>309.7110456222515</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M18" t="n">
         <v>488.1091505729034</v>
@@ -35975,7 +35975,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O18" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P18" t="n">
         <v>308.4914891638518</v>
@@ -36042,13 +36042,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L19" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M19" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N19" t="n">
         <v>127.4430518046842</v>
@@ -36057,7 +36057,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P19" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>231.4844522093428</v>
       </c>
       <c r="L21" t="n">
-        <v>309.7110456222515</v>
+        <v>239.615531972424</v>
       </c>
       <c r="M21" t="n">
         <v>488.1091505729034</v>
@@ -36218,7 +36218,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>14.92312141674913</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>373.2840556651353</v>
+        <v>322.1889715319537</v>
       </c>
       <c r="M24" t="n">
         <v>488.1091505729034</v>
@@ -36674,16 +36674,16 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K27" t="n">
-        <v>231.4844522093428</v>
+        <v>155.9212115582994</v>
       </c>
       <c r="L27" t="n">
-        <v>325.6156800751231</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O27" t="n">
         <v>405.7701329255822</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>231.4844522093428</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M30" t="n">
-        <v>426.0518778736069</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N30" t="n">
         <v>516.8936174628016</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P30" t="n">
         <v>308.4914891638518</v>
@@ -37148,7 +37148,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K33" t="n">
-        <v>167.911442166459</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651353</v>
@@ -37166,7 +37166,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O36" t="n">
-        <v>342.1971228826985</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P36" t="n">
-        <v>308.4914891638518</v>
+        <v>244.9184791209679</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K39" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
@@ -37634,7 +37634,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O39" t="n">
-        <v>405.7701329255822</v>
+        <v>189.2088021329886</v>
       </c>
       <c r="P39" t="n">
         <v>308.4914891638518</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>231.4844522093429</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>325.615680075123</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M42" t="n">
-        <v>488.1091505729034</v>
+        <v>437.0140664397218</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O42" t="n">
         <v>405.7701329255823</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788754</v>
       </c>
       <c r="K44" t="n">
         <v>258.4411848848628</v>
@@ -38035,7 +38035,7 @@
         <v>265.0955169306804</v>
       </c>
       <c r="Q44" t="n">
-        <v>121.0739155037669</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>231.4844522093429</v>
@@ -38102,10 +38102,10 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M45" t="n">
-        <v>488.1091505729034</v>
+        <v>332.1534122685986</v>
       </c>
       <c r="N45" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O45" t="n">
         <v>405.7701329255823</v>
